--- a/Proj247/src/main/resources/universityInfo.xlsx
+++ b/Proj247/src/main/resources/universityInfo.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dujeva\IdeaProjects\Proj247\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
@@ -153,8 +158,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +209,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -250,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +330,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -491,16 +506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C2:D12"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -528,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -542,7 +557,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -556,7 +571,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -570,7 +585,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -584,7 +599,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -598,7 +613,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -612,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -626,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -640,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -654,7 +669,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -675,14 +690,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
@@ -691,7 +706,7 @@
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +724,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -726,7 +741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -743,7 +758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -760,7 +775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -777,7 +792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -794,7 +809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -811,7 +826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -835,12 +850,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
